--- a/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,47; 3,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,93; 3,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,44; 2,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,26; 4,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,51; 4,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,23; 2,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,62; 4,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,0; 3,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,31; 3,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,27; 2,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,41; 3,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,98; 3,5</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,94; 5,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,96; 5,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,8; 4,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,54; 4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,04; 5,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,59; 5,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,05; 4,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,23; 5,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,33; 4,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,53; 4,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,15; 4,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>3,17; 4,52</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,73; 4,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>2,72; 6,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,81; 3,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,0; 4,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,88; 3,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,69; 7,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,77; 5,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,72; 6,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,71; 3,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,11; 6,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,53; 3,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,21; 5,28</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,74; 4,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,73; 4,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,27; 3,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,59; 4,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,85; 4,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,0; 4,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,87; 4,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>3,44; 4,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,94; 3,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,0; 3,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,71; 3,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,2; 4,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,31</t>
+          <t>1,19; 4,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,86</t>
+          <t>2,01; 3,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,5</t>
+          <t>1,98; 3,47</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,56</t>
+          <t>2,24; 4,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,36</t>
+          <t>2,69; 4,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 4,52</t>
+          <t>2,75; 4,31</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,7</t>
+          <t>1,98; 4,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,95</t>
+          <t>3,85; 7,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,28</t>
+          <t>3,26; 5,38</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,05</t>
+          <t>2,33; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,9</t>
+          <t>3,11; 4,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,17</t>
+          <t>2,95; 4,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,87</t>
+          <t>1,5; 3,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,05</t>
+          <t>1,05; 3,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,61</t>
+          <t>0,61; 3,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,17</t>
+          <t>1,31; 4,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,65</t>
+          <t>2,35; 4,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,91</t>
+          <t>1,23; 2,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,41</t>
+          <t>1,62; 4,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,86</t>
+          <t>2,03; 3,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,93</t>
+          <t>2,25; 4,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,6</t>
+          <t>1,24; 2,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,21</t>
+          <t>1,36; 3,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,47</t>
+          <t>1,99; 3,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,17</t>
+          <t>3,08; 5,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,0</t>
+          <t>2,92; 4,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,64</t>
+          <t>2,83; 4,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,63</t>
+          <t>2,26; 4,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,26</t>
+          <t>3,02; 5,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,82</t>
+          <t>3,63; 5,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 4,89</t>
+          <t>3,14; 4,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,9</t>
+          <t>2,61; 4,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 4,8</t>
+          <t>3,31; 4,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,98</t>
+          <t>3,48; 5,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,44</t>
+          <t>3,26; 4,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,31</t>
+          <t>2,76; 4,41</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,93</t>
+          <t>1,68; 4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,95</t>
+          <t>2,65; 6,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,28</t>
+          <t>0,81; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,77</t>
+          <t>2,05; 4,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,83</t>
+          <t>0,96; 3,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,07</t>
+          <t>2,48; 7,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,06</t>
+          <t>1,65; 5,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,18</t>
+          <t>3,78; 7,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,74</t>
+          <t>1,72; 3,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,13</t>
+          <t>3,15; 6,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,58</t>
+          <t>1,53; 3,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,38</t>
+          <t>3,34; 5,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,21</t>
+          <t>2,7; 4,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,06</t>
+          <t>2,69; 4,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,57</t>
+          <t>2,24; 3,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,15</t>
+          <t>2,35; 4,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,2</t>
+          <t>2,83; 4,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,31</t>
+          <t>2,91; 4,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,29</t>
+          <t>2,88; 4,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,67</t>
+          <t>3,09; 4,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,99</t>
+          <t>3,0; 4,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,98</t>
+          <t>2,98; 3,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,69</t>
+          <t>2,73; 3,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,1</t>
+          <t>2,95; 4,13</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por ortodoncia</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17264</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13635</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5948</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11524</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32338</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21162</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17592</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20442</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>49601</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34797</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23541</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31966</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10326; 25899</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8173; 24035</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2777; 13885</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6333; 20751</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22512; 44753</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13886; 33523</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10336; 27745</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14623; 27694</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>37148; 65989</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23717; 47750</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14863; 34751</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23981; 43339</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53345</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64067</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>61424</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>74665</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>54281</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>73135</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67901</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83267</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107626</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>137202</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>129325</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>157932</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40503; 70025</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49329; 81710</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48000; 78930</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50375; 107851</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41464; 70252</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>57788; 91865</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53712; 85018</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57429; 106643</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>88907; 131059</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>114077; 164521</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>111079; 155465</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>122417; 195494</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13712</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8392</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20075</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8473</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18642</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15638</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34650</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22185</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38334</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24031</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>54725</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7559; 21855</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11699; 29877</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4064; 16172</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12916; 30199</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3923; 16078</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10493; 29763</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8383; 26030</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24617; 48552</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14788; 33770</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27296; 52727</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15418; 36429</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42884; 72367</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>84321</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>97394</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>75765</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>106265</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>95091</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>112940</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>101132</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>138358</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>179412</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>210334</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>176897</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>244623</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66285; 103953</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78140; 117505</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>59504; 94486</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>78659; 138339</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>77527; 117081</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>91399; 137226</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>82182; 122565</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>110380; 164804</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>156069; 208510</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>180044; 241733</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>150190; 203983</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>204202; 285533</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>